--- a/ExcelConfig/商店表.xlsx
+++ b/ExcelConfig/商店表.xlsx
@@ -499,13 +499,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -515,8 +515,9 @@
     <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="27.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
@@ -593,6 +594,23 @@
         <v>3</v>
       </c>
       <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F5" s="2">
         <v>1</v>
       </c>
     </row>
